--- a/webscrapping school/msaces/excel/2025-07-04.xlsx
+++ b/webscrapping school/msaces/excel/2025-07-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R54"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,215 +528,205 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Número</t>
+          <t>747688</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Data</t>
+          <t>2025.06.11</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nome do requerente, nacionalidade, profissão, morada.</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Reprodução do sinal.</t>
-        </is>
-      </c>
+          <t>ANTONIO DOS SANTOS SOUSA, LDA</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/antonio-dos-santos-sousa-lda/</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>505590000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Lugar de Gândara</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4505-570 Pigeiros</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456789</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12345</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>747644</t>
+          <t>747798</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.13</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TRILHOS FESTIVOS, LDA</t>
+          <t>PORTILHO &amp; VIEIRA LDA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>28</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>39</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>DOURO FRAGANCE</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/portilho-vieira-lda/</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>501408878</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua da Igreja de Ramalde, Nº 158/164 - R/C</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4100-280 Porto</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456790</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12346</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>747688</t>
+          <t>747813</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025.06.11</t>
+          <t>2025.06.14</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ANTONIO DOS SANTOS SOUSA, LDA</t>
+          <t>SILVA SALGADO, COMÉRCIO DE VINHOS LDA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
+        <v>32</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>LA BANDIDA</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>https://www.racius.com/antonio-dos-santos-sousa-lda/</t>
+          <t>https://www.racius.com/silva-salgado-comercio-de-vinhos-lda/</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>505590000</t>
+          <t>505360608</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Lugar de Gândara</t>
+          <t>Rua da Palmeira, N.º 82</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>4505-570 Pigeiros</t>
+          <t>3060-213 Cantanhede</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -768,57 +758,57 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>123456789</t>
+          <t>123456792</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>12348</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>747798</t>
+          <t>747818</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025.06.13</t>
+          <t>2025.06.14</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PORTILHO &amp; VIEIRA LDA</t>
+          <t>SOARES &amp; DAIA LDA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DOURO FRAGANCE</t>
+          <t>BLACK INSPIRATION TALKS</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>https://www.racius.com/portilho-vieira-lda/</t>
+          <t>https://www.racius.com/soares-daia-lda/</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>501408878</t>
+          <t>510441092</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rua da Igreja de Ramalde, Nº 158/164 - R/C</t>
+          <t>Rua Cidade da Beira, Lote 503, 1º Dtº</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>4100-280 Porto</t>
+          <t>1170-113 Lisboa</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -850,309 +840,293 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>123456790</t>
+          <t>123456793</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>12346</t>
+          <t>12349</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>747806</t>
+          <t>747822</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MARCO FILIPE FERREIRA DE OLIVEIRA</t>
+          <t>METEORIKIDEA - CONSULTORIA &amp; INVESTIMENTOS, LDA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>6</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
+        <v>35</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>FIDEXIS</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/meteorikidea-consultoria-investimentos-lda/</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>509356141</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Nossa Senhora Santana, Nº 54, Sobral do Parelhão</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2540-467 Carvalhal Bbr</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456795</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12351</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>747808</t>
+          <t>747824</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PEDRO MIGUEL COSTA MARTINS RODRIGUES</t>
+          <t>ELEGÂNCIA SOLENE LDA</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/elegancia-solene-lda/</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>517938847</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Avenida António Augusto de Aguiar, Nº 24, 6º Esq.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>1050-206 Lisboa</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456796</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12352</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>747810</t>
+          <t>747826</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>JOSÉ PAULO ESCOVAL DA CRUZ</t>
+          <t>GLORIOUS ILLUSIONS LDA</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/glorious-illusions-lda/</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>515904619</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua das Fábricas, Nº 42</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4750-361 Campo</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456797</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12353</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>747812</t>
+          <t>747827</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ASSOCIAÇÃO NOVA CULTURA DE MONTARGIL</t>
+          <t>ACHIEV2GOAL, UNIPESSOAL, LDA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>https://www.racius.com/associacao-nova-cultura-de-montargil/</t>
+          <t>https://www.racius.com/achiev2goal-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>508586720</t>
+          <t>518458245</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Portalegre - Ponte de Sor</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>Azinhaga das Galhardas, N.º 17, Bloco C, 6.º A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>1600-097 Lisboa</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
           <t>07/2025</t>
@@ -1182,19 +1156,19 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>123456791</t>
+          <t>123456798</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>12347</t>
+          <t>12354</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>747813</t>
+          <t>747846</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1204,35 +1178,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>SILVA SALGADO, COMÉRCIO DE VINHOS LDA</t>
+          <t>JOÃO RAIMUNDO GONÇALVES - J.R.GONÇALVES - REPARAÇÃO E VENDA DE ELECTRODOMÉSTICOS, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>LA BANDIDA</t>
-        </is>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>https://www.racius.com/silva-salgado-comercio-de-vinhos-lda/</t>
+          <t>https://www.racius.com/joao-raimundo-goncalves-j-r-goncalves-reparacao-e-venda-de-electrodomesticos-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>505360608</t>
+          <t>518832856</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rua da Palmeira, N.º 82</t>
+          <t>Praceta Maria Clementina Borges de Sá, Lote 2, 3º Esq.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>3060-213 Cantanhede</t>
+          <t>8005-547 Faro</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1264,19 +1234,19 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>123456792</t>
+          <t>123456799</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>12348</t>
+          <t>12355</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>747815</t>
+          <t>747847</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1286,301 +1256,277 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>JOÃO BERNARDO BISPO GOMES ES ANA INÊS GUERGOSSO MEIRELES</t>
+          <t>HCN - SERVIÇOS DE CONSULTORIA E COMUNICAÇÃO, LDA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LIMBO ATELIER</t>
+          <t>VINAGRE COM ELAS</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/hcn-servicos-de-consultoria-e-comunicacao-lda/</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>517017288</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Diogo Cão, N.º 12, 3.º Esq.º</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>1300-181 Lisboa</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456800</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12356</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>747816</t>
+          <t>747858</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SANDRA MARINA DE MATOS CRUZ MORGADO</t>
+          <t>ANA SOFIA NUNES FERREIRA</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>30</v>
-      </c>
-      <c r="E12" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>SKILLWISE</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/ana-sofia-nunes-sociedade-unipessoal-limitada/</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>508527090</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Sobrão de Cima, N 170</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4595-279 Paços de Ferreira</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456801</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12357</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>747817</t>
+          <t>747859</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BRUNO RAFAEL LEITE MOITA</t>
+          <t>ORLANDO &amp; ARAÚJOS, S.A.</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FM AUTO - COMÉRCIO AUTOMÓVEL</t>
+          <t>AQUADELTA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/orlando-araujos-s-a/</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>500874182</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>R da Primavera-Baguim do Monte</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4435-786 Baguim do Monte</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456802</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12358</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>747818</t>
+          <t>747861</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SOARES &amp; DAIA LDA</t>
+          <t>VITOR HUGO BALDINI</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>41</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>BLACK INSPIRATION TALKS</t>
-        </is>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>https://www.racius.com/soares-daia-lda/</t>
+          <t>https://www.racius.com/vitor-hugo-corticas-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>510441092</t>
+          <t>508266300</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rua Cidade da Beira, Lote 503, 1º Dtº</t>
+          <t>Rua Central dos Valos, N 768, 4</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1170-113 Lisboa</t>
+          <t>4505-257 Fiães Vfr</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1612,29 +1558,29 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>123456793</t>
+          <t>123456803</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>12349</t>
+          <t>12359</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>747819</t>
+          <t>747862</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ASSOCIAÇÃO ESPAÇO PORTAL</t>
+          <t>BIGADVANTAGE - CONSULTORES DE GESTÃO LDA.</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -1642,25 +1588,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>JORNADA CONSCIENTE</t>
+          <t>SIMULADOR SU</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>https://www.racius.com/associacao-espaco-portal/</t>
+          <t>https://www.racius.com/bigadvantage-consultores-de-gestao-lda/</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>514147717</t>
+          <t>509346170</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Porto - Maia</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>Instituto Pedro Nunes, Rua Pedro Nunes</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>3030-199 Coimbra</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr">
         <is>
           <t>07/2025</t>
@@ -1690,115 +1640,111 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>123456794</t>
+          <t>123456804</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>12350</t>
+          <t>12360</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>747820</t>
+          <t>747864</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.16</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>JOÃO GONÇALO SEABRA CONTENTE PT JOANA SARDINHA RODRIGUES ALVES</t>
+          <t>RAMIREZ CARVALHO, LDA</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9</v>
-      </c>
-      <c r="E16" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>TRANCAS</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/ramirez-carvalho-lda/</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518533514</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Teodoro Gonçalves, 29</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2150-272 Golegã</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456805</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12361</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>747822</t>
+          <t>747868</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.16</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>METEORIKIDEA - CONSULTORIA &amp; INVESTIMENTOS, LDA</t>
+          <t>PAULO JORGE DA SILVA LEITE</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -1806,27 +1752,27 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FIDEXIS</t>
+          <t>POS1000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>https://www.racius.com/meteorikidea-consultoria-investimentos-lda/</t>
+          <t>https://www.racius.com/paulo-jorge-da-silva-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>509356141</t>
+          <t>509750540</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Rua Nossa Senhora Santana, Nº 54, Sobral do Parelhão</t>
+          <t>Estrada Regional 28-C</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>2540-467 Carvalhal Bbr</t>
+          <t>9930-456 Lajes do Pico</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1858,53 +1804,57 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>123456795</t>
+          <t>123456806</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>12351</t>
+          <t>12362</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>747824</t>
+          <t>747869</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.16</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ELEGÂNCIA SOLENE LDA</t>
+          <t>IMPRILAR, LDA</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" t="inlineStr"/>
+        <v>36</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>CARVALHAIS VILLAGE</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>https://www.racius.com/elegancia-solene-lda/</t>
+          <t>https://www.racius.com/imprilar-lda/</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>517938847</t>
+          <t>506961109</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Avenida António Augusto de Aguiar, Nº 24, 6º Esq.</t>
+          <t>Edifício Armazéns do Calhabé, Estrada Nacional Nº1, Quinta da Balseira - Banhos Secos</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1050-206 Lisboa</t>
+          <t>3040-227 Coimbra</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1936,105 +1886,101 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>123456796</t>
+          <t>123456807</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>12352</t>
+          <t>12363</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>747825</t>
+          <t>747915</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.14</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RUI DUARTE BOTELHO MOREIRA BRAGA</t>
+          <t>MARIA DE FÁTIMA CARVALHO MARQUES</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>16</v>
-      </c>
-      <c r="E19" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>NATHA COFFEE</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/maria-de-fatima-moveis-de-ocasiao-sociedade-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>506289770</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Av. Marquês de Pombal, N 2, Loja Direita</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2590-041 Sobral de Monte Agraço</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456808</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12364</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>747826</t>
+          <t>747917</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2044,31 +1990,31 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GLORIOUS ILLUSIONS LDA</t>
+          <t>NINFAS E FAUNOS LDA</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.racius.com/glorious-illusions-lda/</t>
+          <t>https://www.racius.com/ninfas-e-faunos-lda/</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>515904619</t>
+          <t>507501195</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rua das Fábricas, Nº 42</t>
+          <t>Rua de S. Marcos, Nº. 8, Lugar da Estrada</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>4750-361 Campo</t>
+          <t>2525-477 Atouguia da Baleia</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2100,19 +2046,19 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>123456797</t>
+          <t>123456809</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>12353</t>
+          <t>12365</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>747827</t>
+          <t>747918</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2122,31 +2068,31 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ACHIEV2GOAL, UNIPESSOAL, LDA</t>
+          <t>DONIZETTI DE LIMA JUNIOR</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.racius.com/achiev2goal-unipessoal-lda/</t>
+          <t>https://www.racius.com/j-baptista-de-lima-junior-herdeiros-lda-em-liquidacao/</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>518458245</t>
+          <t>500143641</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Azinhaga das Galhardas, N.º 17, Bloco C, 6.º A</t>
+          <t>Rua Agostinho Landolt, Nº 89</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>1600-097 Lisboa</t>
+          <t>4490-457 Póvoa de Varzim</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2178,139 +2124,135 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>123456798</t>
+          <t>123456810</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>12354</t>
+          <t>12366</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>747831</t>
+          <t>747919</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025.06.16</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>LOUIS DELIUS GMBH &amp; CO. KG</t>
+          <t>FERNANDES RICCIOPPO - IMOBILIÁRIA E DECORAÇÃO, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/fernandes-riccioppo-imobiliaria-e-decoracao-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>515832960</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Conde Alto de Mearim, 1133, 5º, Sala 55</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4450-036 Matosinhos</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456811</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12367</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>747846</t>
+          <t>747991</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.16</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>JOÃO RAIMUNDO GONÇALVES - J.R.GONÇALVES - REPARAÇÃO E VENDA DE ELECTRODOMÉSTICOS, UNIPESSOAL LDA</t>
+          <t>REGRAS FANTÁSTICAS LDA</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>37</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BILIBOT</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>https://www.racius.com/joao-raimundo-goncalves-j-r-goncalves-reparacao-e-venda-de-electrodomesticos-unipessoal-lda/</t>
+          <t>https://www.racius.com/regras-fantasticas-lda/</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>518832856</t>
+          <t>508684161</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Praceta Maria Clementina Borges de Sá, Lote 2, 3º Esq.</t>
+          <t>Rua Dr. Gomes Leal 3 A</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>8005-547 Faro</t>
+          <t>2560-331 Torres Vedras</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2342,57 +2284,53 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>123456799</t>
+          <t>123456812</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>12355</t>
+          <t>12368</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>747847</t>
+          <t>747688</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.11</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>HCN - SERVIÇOS DE CONSULTORIA E COMUNICAÇÃO, LDA</t>
+          <t>ANTONIO DOS SANTOS SOUSA, LDA</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>41</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>VINAGRE COM ELAS</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.racius.com/hcn-servicos-de-consultoria-e-comunicacao-lda/</t>
+          <t>https://www.racius.com/antonio-dos-santos-sousa-lda/</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>517017288</t>
+          <t>505590000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rua Diogo Cão, N.º 12, 3.º Esq.º</t>
+          <t>Lugar de Gândara</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1300-181 Lisboa</t>
+          <t>4505-570 Pigeiros</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2424,109 +2362,101 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>123456800</t>
+          <t>123456842</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>12356</t>
+          <t>12398</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>747848</t>
+          <t>747798</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.13</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ARMANDO BORGES DA SILVA</t>
+          <t>PORTILHO &amp; VIEIRA LDA</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CYDALVA</t>
+          <t>DOURO FRAGANCE</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/portilho-vieira-lda/</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>501408878</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua da Igreja de Ramalde, Nº 158/164 - R/C</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4100-280 Porto</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456843</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12399</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>747850</t>
+          <t>747813</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2536,87 +2466,79 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ARMANDO BORGES DA SILVA</t>
+          <t>SILVA SALGADO, COMÉRCIO DE VINHOS LDA</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LUNTRA</t>
+          <t>LA BANDIDA</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/silva-salgado-comercio-de-vinhos-lda/</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>505360608</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua da Palmeira, N.º 82</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>3060-213 Cantanhede</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456845</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12401</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>747851</t>
+          <t>747818</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2626,353 +2548,317 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ARMANDO BORGES DA SILVA</t>
+          <t>SOARES &amp; DAIA LDA</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>33</v>
-      </c>
-      <c r="E27" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BLACK INSPIRATION TALKS</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/soares-daia-lda/</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>510441092</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Cidade da Beira, Lote 503, 1º Dtº</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>1170-113 Lisboa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456846</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12402</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>747852</t>
+          <t>747822</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ARMANDO BORGES DA SILVA</t>
+          <t>METEORIKIDEA - CONSULTORIA &amp; INVESTIMENTOS, LDA</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>VELAH</t>
+          <t>FIDEXIS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/meteorikidea-consultoria-investimentos-lda/</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>509356141</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Nossa Senhora Santana, Nº 54, Sobral do Parelhão</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2540-467 Carvalhal Bbr</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456848</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12404</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>747853</t>
+          <t>747824</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ARMANDO BORGES DA SILVA</t>
+          <t>ELEGÂNCIA SOLENE LDA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>33</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>FAYNA</t>
-        </is>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/elegancia-solene-lda/</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>517938847</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Avenida António Augusto de Aguiar, Nº 24, 6º Esq.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>1050-206 Lisboa</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456849</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12405</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>747854</t>
+          <t>747826</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025.06.14</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ARMANDO BORGES DA SILVA</t>
+          <t>GLORIOUS ILLUSIONS LDA</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>33</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>VYNTRA</t>
-        </is>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/glorious-illusions-lda/</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>515904619</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua das Fábricas, Nº 42</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>4750-361 Campo</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456850</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12406</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>747855</t>
+          <t>747827</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2982,252 +2868,228 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RUI JORGE DA ROCHA SANTOS</t>
+          <t>ACHIEV2GOAL, UNIPESSOAL, LDA</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/achiev2goal-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518458245</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Azinhaga das Galhardas, N.º 17, Bloco C, 6.º A</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>1600-097 Lisboa</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456851</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12407</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>747856</t>
+          <t>747846</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.14</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NUNO FILIPE GUTERRES CASTANHO BIGA DE ALMEIDA</t>
+          <t>JOÃO RAIMUNDO GONÇALVES - J.R.GONÇALVES - REPARAÇÃO E VENDA DE ELECTRODOMÉSTICOS, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D32" t="n">
         <v>37</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>LEXBUILD CONSULTING</t>
-        </is>
-      </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/joao-raimundo-goncalves-j-r-goncalves-reparacao-e-venda-de-electrodomesticos-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518832856</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Praceta Maria Clementina Borges de Sá, Lote 2, 3º Esq.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>8005-547 Faro</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456852</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12408</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>747857</t>
+          <t>747847</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.14</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CATARINA ISABEL DA SILVA VALENTE</t>
+          <t>HCN - SERVIÇOS DE CONSULTORIA E COMUNICAÇÃO, LDA</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>9</v>
-      </c>
-      <c r="E33" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>VINAGRE COM ELAS</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/hcn-servicos-de-consultoria-e-comunicacao-lda/</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>517017288</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Diogo Cão, N.º 12, 3.º Esq.º</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>1300-181 Lisboa</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
+        <v>0</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456853</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12409</t>
         </is>
       </c>
     </row>
@@ -3304,12 +3166,12 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>123456801</t>
+          <t>123456854</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>12357</t>
+          <t>12410</t>
         </is>
       </c>
     </row>
@@ -3386,12 +3248,12 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>123456802</t>
+          <t>123456855</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>12358</t>
+          <t>12411</t>
         </is>
       </c>
     </row>
@@ -3464,12 +3326,12 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>123456803</t>
+          <t>123456856</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>12359</t>
+          <t>12412</t>
         </is>
       </c>
     </row>
@@ -3546,105 +3408,101 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>123456804</t>
+          <t>123456857</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>12360</t>
+          <t>12413</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>747863</t>
+          <t>747864</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.16</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FRANCISCO SIMÕES RODRIGUES RIBEIRO DE MENESES PT FRANCISCO ANDRÉ ÉVORA</t>
+          <t>RAMIREZ CARVALHO, LDA</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>25</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
+        <v>29</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>TRANCAS</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/ramirez-carvalho-lda/</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>518533514</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Teodoro Gonçalves, 29</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2150-272 Golegã</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456858</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12414</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>747864</t>
+          <t>747868</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -3654,35 +3512,35 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>RAMIREZ CARVALHO, LDA</t>
+          <t>PAULO JORGE DA SILVA LEITE</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TRANCAS</t>
+          <t>POS1000</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>https://www.racius.com/ramirez-carvalho-lda/</t>
+          <t>https://www.racius.com/paulo-jorge-da-silva-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>518533514</t>
+          <t>509750540</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rua Teodoro Gonçalves, 29</t>
+          <t>Estrada Regional 28-C</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>2150-272 Golegã</t>
+          <t>9930-456 Lajes do Pico</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3714,19 +3572,19 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>123456805</t>
+          <t>123456859</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>12361</t>
+          <t>12415</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>747865</t>
+          <t>747869</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3736,297 +3594,273 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PAULO ROBERTO GARRIDO MACEDO</t>
+          <t>IMPRILAR, LDA</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>MAGMASA</t>
+          <t>CARVALHAIS VILLAGE</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/imprilar-lda/</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>506961109</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Edifício Armazéns do Calhabé, Estrada Nacional Nº1, Quinta da Balseira - Banhos Secos</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>3040-227 Coimbra</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456860</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12416</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>747866</t>
+          <t>747915</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2025.06.16</t>
+          <t>2025.06.14</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>JOSÉ PAULO CALVINHO BRAZ AFONSO</t>
+          <t>MARIA DE FÁTIMA CARVALHO MARQUES</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>36</v>
-      </c>
-      <c r="E41" t="inlineStr"/>
+        <v>30</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NATHA COFFEE</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/maria-de-fatima-moveis-de-ocasiao-sociedade-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>506289770</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Av. Marquês de Pombal, N 2, Loja Direita</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2590-041 Sobral de Monte Agraço</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456861</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12417</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>747867</t>
+          <t>747917</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2025.06.16</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ANTÓNIO MANUEL ALVES FERREIRA</t>
+          <t>NINFAS E FAUNOS LDA</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/ninfas-e-faunos-lda/</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>507501195</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua de S. Marcos, Nº. 8, Lugar da Estrada</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2525-477 Atouguia da Baleia</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
+        <v>0</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456862</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>12418</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>747868</t>
+          <t>747918</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2025.06.16</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PAULO JORGE DA SILVA LEITE</t>
+          <t>DONIZETTI DE LIMA JUNIOR</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>35</v>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>POS1000</t>
-        </is>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>https://www.racius.com/paulo-jorge-da-silva-unipessoal-lda/</t>
+          <t>https://www.racius.com/j-baptista-de-lima-junior-herdeiros-lda-em-liquidacao/</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>509750540</t>
+          <t>500143641</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Estrada Regional 28-C</t>
+          <t>Rua Agostinho Landolt, Nº 89</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>9930-456 Lajes do Pico</t>
+          <t>4490-457 Póvoa de Varzim</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -4058,57 +3892,53 @@
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>123456806</t>
+          <t>123456863</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>12362</t>
+          <t>12419</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>747869</t>
+          <t>747919</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2025.06.16</t>
+          <t>2025.06.15</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>IMPRILAR, LDA</t>
+          <t>FERNANDES RICCIOPPO - IMOBILIÁRIA E DECORAÇÃO, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>36</v>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>CARVALHAIS VILLAGE</t>
-        </is>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>https://www.racius.com/imprilar-lda/</t>
+          <t>https://www.racius.com/fernandes-riccioppo-imobiliaria-e-decoracao-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>506961109</t>
+          <t>515832960</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Edifício Armazéns do Calhabé, Estrada Nacional Nº1, Quinta da Balseira - Banhos Secos</t>
+          <t>Rua Conde Alto de Mearim, 1133, 5º, Sala 55</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>3040-227 Coimbra</t>
+          <t>4450-036 Matosinhos</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -4140,19 +3970,19 @@
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>123456807</t>
+          <t>123456864</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>12363</t>
+          <t>12420</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>747871</t>
+          <t>747991</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4162,816 +3992,72 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NELSON MIGUEL DA CONCEIÇÃO NEVES</t>
+          <t>REGRAS FANTÁSTICAS LDA</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>39</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>BILIBOT</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>https://www.racius.com/regras-fantasticas-lda/</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>508684161</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>Rua Dr. Gomes Leal 3 A</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>2560-331 Torres Vedras</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2025</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>07/2035</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
+          <t>2025-07-04</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>Not Found</t>
+          <t>123456865</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>747915</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>2025.06.14</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>MARIA DE FÁTIMA CARVALHO MARQUES</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>30</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>NATHA COFFEE</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/maria-de-fatima-moveis-de-ocasiao-sociedade-unipessoal-lda/</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>506289770</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Av. Marquês de Pombal, N 2, Loja Direita</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>2590-041 Sobral de Monte Agraço</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>123456808</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>12364</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>747916</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>ANA RITA BALDINI LAU FOO</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>41</v>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>747917</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>NINFAS E FAUNOS LDA</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>3</v>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/ninfas-e-faunos-lda/</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>507501195</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Rua de S. Marcos, Nº. 8, Lugar da Estrada</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>2525-477 Atouguia da Baleia</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>123456809</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>12365</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>747918</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>DONIZETTI DE LIMA JUNIOR</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>39</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/j-baptista-de-lima-junior-herdeiros-lda-em-liquidacao/</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>500143641</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Rua Agostinho Landolt, Nº 89</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>4490-457 Póvoa de Varzim</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="n">
-        <v>0</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>123456810</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>12366</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>747919</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>FERNANDES RICCIOPPO - IMOBILIÁRIA E DECORAÇÃO, UNIPESSOAL LDA</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>41</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/fernandes-riccioppo-imobiliaria-e-decoracao-unipessoal-lda/</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>515832960</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Rua Conde Alto de Mearim, 1133, 5º, Sala 55</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>4450-036 Matosinhos</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>123456811</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>12367</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>747920</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>SOCIEDADE AGRICOLA QUINTA DO SALGUEIRÓ LDA</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>33</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>747990</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>HÉLDER ALEXANDRE RAMOS ROSA</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>43</v>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>747991</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2025.06.16</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>REGRAS FANTÁSTICAS LDA</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>42</v>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>BILIBOT</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/regras-fantasticas-lda/</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>508684161</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Rua Dr. Gomes Leal 3 A</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>2560-331 Torres Vedras</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>123456812</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>12368</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>58224</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2025.06.13</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>FILIPE MANUEL COELHO PEREIRA</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Not Found</t>
+          <t>12421</t>
         </is>
       </c>
     </row>

--- a/webscrapping school/msaces/excel/2025-07-04.xlsx
+++ b/webscrapping school/msaces/excel/2025-07-04.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R45"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1980,7 +1980,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>747917</t>
+          <t>747918</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1990,31 +1990,31 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NINFAS E FAUNOS LDA</t>
+          <t>DONIZETTI DE LIMA JUNIOR</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>https://www.racius.com/ninfas-e-faunos-lda/</t>
+          <t>https://www.racius.com/j-baptista-de-lima-junior-herdeiros-lda-em-liquidacao/</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>507501195</t>
+          <t>500143641</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Rua de S. Marcos, Nº. 8, Lugar da Estrada</t>
+          <t>Rua Agostinho Landolt, Nº 89</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2525-477 Atouguia da Baleia</t>
+          <t>4490-457 Póvoa de Varzim</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2058,7 +2058,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>747918</t>
+          <t>747919</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2068,31 +2068,31 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DONIZETTI DE LIMA JUNIOR</t>
+          <t>FERNANDES RICCIOPPO - IMOBILIÁRIA E DECORAÇÃO, UNIPESSOAL LDA</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>https://www.racius.com/j-baptista-de-lima-junior-herdeiros-lda-em-liquidacao/</t>
+          <t>https://www.racius.com/fernandes-riccioppo-imobiliaria-e-decoracao-unipessoal-lda/</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>500143641</t>
+          <t>515832960</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rua Agostinho Landolt, Nº 89</t>
+          <t>Rua Conde Alto de Mearim, 1133, 5º, Sala 55</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4490-457 Póvoa de Varzim</t>
+          <t>4450-036 Matosinhos</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2136,41 +2136,45 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>747919</t>
+          <t>747991</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025.06.15</t>
+          <t>2025.06.16</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FERNANDES RICCIOPPO - IMOBILIÁRIA E DECORAÇÃO, UNIPESSOAL LDA</t>
+          <t>REGRAS FANTÁSTICAS LDA</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>41</v>
-      </c>
-      <c r="E22" t="inlineStr"/>
+        <v>42</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BILIBOT</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>https://www.racius.com/fernandes-riccioppo-imobiliaria-e-decoracao-unipessoal-lda/</t>
+          <t>https://www.racius.com/regras-fantasticas-lda/</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>515832960</t>
+          <t>508684161</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rua Conde Alto de Mearim, 1133, 5º, Sala 55</t>
+          <t>Rua Dr. Gomes Leal 3 A</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4450-036 Matosinhos</t>
+          <t>2560-331 Torres Vedras</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2208,1856 +2212,6 @@
       <c r="R22" t="inlineStr">
         <is>
           <t>12367</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>747991</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025.06.16</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>REGRAS FANTÁSTICAS LDA</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>42</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BILIBOT</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/regras-fantasticas-lda/</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>508684161</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Rua Dr. Gomes Leal 3 A</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>2560-331 Torres Vedras</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>123456812</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>12368</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>747688</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025.06.11</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>ANTONIO DOS SANTOS SOUSA, LDA</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/antonio-dos-santos-sousa-lda/</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>505590000</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Lugar de Gândara</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>4505-570 Pigeiros</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>123456842</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>12398</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>747798</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025.06.13</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>PORTILHO &amp; VIEIRA LDA</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>39</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>DOURO FRAGANCE</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/portilho-vieira-lda/</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>501408878</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Rua da Igreja de Ramalde, Nº 158/164 - R/C</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>4100-280 Porto</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>123456843</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>12399</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>747813</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025.06.14</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>SILVA SALGADO, COMÉRCIO DE VINHOS LDA</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>32</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>LA BANDIDA</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/silva-salgado-comercio-de-vinhos-lda/</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>505360608</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Rua da Palmeira, N.º 82</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>3060-213 Cantanhede</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>123456845</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>12401</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>747818</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025.06.14</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>SOARES &amp; DAIA LDA</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>41</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>BLACK INSPIRATION TALKS</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/soares-daia-lda/</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>510441092</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Rua Cidade da Beira, Lote 503, 1º Dtº</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>1170-113 Lisboa</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>123456846</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>12402</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>747822</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>METEORIKIDEA - CONSULTORIA &amp; INVESTIMENTOS, LDA</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>35</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>FIDEXIS</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/meteorikidea-consultoria-investimentos-lda/</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>509356141</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Rua Nossa Senhora Santana, Nº 54, Sobral do Parelhão</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>2540-467 Carvalhal Bbr</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>123456848</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>12404</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>747824</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>ELEGÂNCIA SOLENE LDA</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/elegancia-solene-lda/</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>517938847</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Avenida António Augusto de Aguiar, Nº 24, 6º Esq.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1050-206 Lisboa</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>123456849</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>12405</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>747826</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>GLORIOUS ILLUSIONS LDA</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>25</v>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/glorious-illusions-lda/</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>515904619</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Rua das Fábricas, Nº 42</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>4750-361 Campo</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>123456850</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>12406</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>747827</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>ACHIEV2GOAL, UNIPESSOAL, LDA</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>35</v>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/achiev2goal-unipessoal-lda/</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>518458245</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Azinhaga das Galhardas, N.º 17, Bloco C, 6.º A</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>1600-097 Lisboa</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>123456851</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>12407</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>747846</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025.06.14</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>JOÃO RAIMUNDO GONÇALVES - J.R.GONÇALVES - REPARAÇÃO E VENDA DE ELECTRODOMÉSTICOS, UNIPESSOAL LDA</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>37</v>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/joao-raimundo-goncalves-j-r-goncalves-reparacao-e-venda-de-electrodomesticos-unipessoal-lda/</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>518832856</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Praceta Maria Clementina Borges de Sá, Lote 2, 3º Esq.</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>8005-547 Faro</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>123456852</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>12408</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>747847</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025.06.14</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>HCN - SERVIÇOS DE CONSULTORIA E COMUNICAÇÃO, LDA</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>41</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>VINAGRE COM ELAS</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/hcn-servicos-de-consultoria-e-comunicacao-lda/</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>517017288</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Rua Diogo Cão, N.º 12, 3.º Esq.º</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>1300-181 Lisboa</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>123456853</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>12409</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>747858</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>ANA SOFIA NUNES FERREIRA</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>41</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>SKILLWISE</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/ana-sofia-nunes-sociedade-unipessoal-limitada/</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>508527090</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Rua Sobrão de Cima, N 170</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>4595-279 Paços de Ferreira</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>123456854</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>12410</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>747859</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>ORLANDO &amp; ARAÚJOS, S.A.</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>7</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>AQUADELTA</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/orlando-araujos-s-a/</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>500874182</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>R da Primavera-Baguim do Monte</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>4435-786 Baguim do Monte</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>123456855</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>12411</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>747861</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>VITOR HUGO BALDINI</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>43</v>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/vitor-hugo-corticas-unipessoal-lda/</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>508266300</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Rua Central dos Valos, N 768, 4</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>4505-257 Fiães Vfr</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>123456856</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>12412</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>747862</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>BIGADVANTAGE - CONSULTORES DE GESTÃO LDA.</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>9</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>SIMULADOR SU</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/bigadvantage-consultores-de-gestao-lda/</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>509346170</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Instituto Pedro Nunes, Rua Pedro Nunes</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>3030-199 Coimbra</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>123456857</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>12413</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>747864</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2025.06.16</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>RAMIREZ CARVALHO, LDA</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>29</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>TRANCAS</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/ramirez-carvalho-lda/</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>518533514</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Rua Teodoro Gonçalves, 29</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>2150-272 Golegã</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>123456858</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>12414</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>747868</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2025.06.16</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>PAULO JORGE DA SILVA LEITE</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>35</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>POS1000</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/paulo-jorge-da-silva-unipessoal-lda/</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>509750540</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Estrada Regional 28-C</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>9930-456 Lajes do Pico</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>123456859</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>12415</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>747869</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025.06.16</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>IMPRILAR, LDA</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>36</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>CARVALHAIS VILLAGE</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/imprilar-lda/</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>506961109</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Edifício Armazéns do Calhabé, Estrada Nacional Nº1, Quinta da Balseira - Banhos Secos</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>3040-227 Coimbra</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>123456860</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>12416</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>747915</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025.06.14</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>MARIA DE FÁTIMA CARVALHO MARQUES</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>30</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>NATHA COFFEE</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/maria-de-fatima-moveis-de-ocasiao-sociedade-unipessoal-lda/</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>506289770</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Av. Marquês de Pombal, N 2, Loja Direita</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>2590-041 Sobral de Monte Agraço</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>123456861</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>12417</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>747917</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>NINFAS E FAUNOS LDA</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>3</v>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/ninfas-e-faunos-lda/</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>507501195</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Rua de S. Marcos, Nº. 8, Lugar da Estrada</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>2525-477 Atouguia da Baleia</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>123456862</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>12418</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>747918</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>DONIZETTI DE LIMA JUNIOR</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>39</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/j-baptista-de-lima-junior-herdeiros-lda-em-liquidacao/</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>500143641</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Rua Agostinho Landolt, Nº 89</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>4490-457 Póvoa de Varzim</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>123456863</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>12419</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>747919</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>2025.06.15</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>FERNANDES RICCIOPPO - IMOBILIÁRIA E DECORAÇÃO, UNIPESSOAL LDA</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>41</v>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/fernandes-riccioppo-imobiliaria-e-decoracao-unipessoal-lda/</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>515832960</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Rua Conde Alto de Mearim, 1133, 5º, Sala 55</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>4450-036 Matosinhos</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>123456864</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>12420</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>747991</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>2025.06.16</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>REGRAS FANTÁSTICAS LDA</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>42</v>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>BILIBOT</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>https://www.racius.com/regras-fantasticas-lda/</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>508684161</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Rua Dr. Gomes Leal 3 A</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>2560-331 Torres Vedras</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>07/2025</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>07/2035</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>2025-07-04</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>123456865</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>12421</t>
         </is>
       </c>
     </row>
